--- a/test/test3-meta_sheet.xlsx
+++ b/test/test3-meta_sheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\github\xls2any\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D992923D-E9FC-4B51-993E-CF129907AF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleMap" sheetId="5" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>菜系</t>
   </si>
@@ -104,9 +110,6 @@
     <t>SimpleMap=simple_map=1=true</t>
   </si>
   <si>
-    <t>VirtualKey=vk=1=true</t>
-  </si>
-  <si>
     <t>国家=&amp;food$</t>
   </si>
   <si>
@@ -126,19 +129,17 @@
   </si>
   <si>
     <t>均价=price#</t>
+  </si>
+  <si>
+    <t>VirtualKey=vk=1=false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,348 +157,24 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -505,253 +182,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -762,62 +197,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1075,25 +469,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="9" max="9" width="16.1083333333333" customWidth="1"/>
-    <col min="10" max="10" width="13.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" ht="31.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +504,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="16.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +521,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="16.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1244,54 +638,53 @@
       <c r="K10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="5" max="5" width="13.325" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="39" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" ht="32" customHeight="1" spans="1:13">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="31.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1305,7 +698,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +721,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1351,7 +744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1371,7 +764,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1399,21 +792,20 @@
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1423,66 +815,65 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
       <c r="B2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2">
       <c r="B3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2">
       <c r="B4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2">
       <c r="B5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2">
       <c r="B6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2">
       <c r="B7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2">
       <c r="B8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2">
       <c r="B9">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="22.9166666666667" customWidth="1"/>
-    <col min="2" max="2" width="41.525" customWidth="1"/>
-    <col min="3" max="3" width="36.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" customWidth="1"/>
+    <col min="2" max="2" width="41.54296875" customWidth="1"/>
+    <col min="3" max="3" width="36.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1493,48 +884,48 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>